--- a/test.xlsx
+++ b/test.xlsx
@@ -11,44 +11,6 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Atul17</t>
-  </si>
-  <si>
-    <t>dosa15</t>
-  </si>
-  <si>
-    <t>2021.05.19</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>90+0</t>
-  </si>
-  <si>
-    <t>Hungarian Opening</t>
-  </si>
-  <si>
-    <t>1482</t>
-  </si>
-  <si>
-    <t>1333</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>Standard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g3 d5 Bg2 Nf6 d3 Bf5 Nf3 Nc6 e4 e5 exd5 Nxd5 Nxe5 Nxe5 Bxd5 Qxd5 d4 Nf3+ Ke2 Bg4 Qd3 Nxd4+ Kd2 Qxh1 Qxd4 Qf3 Qe3+ Qxe3+ Kxe3 Be7 Nc3 O-O Bd2 Bg5+ Ke4 Bxd2 Rb1 Bxc3 bxc3 f5+ Kf4 Rad8 h3 Be2 Ke3 Rfe8+ Kf4 g6 Re1 h6 Rxe2 Rxe2 Kf3 Rdd2 g4 Rxf2+ Ke3 Rxc2 gxf5 gxf5 Kd4 Rxa2 c4 Rf4+ Kc5 Ra5+ Kb4 b6 Kc3 Kf7 Kb4 Ke6 Kc3 Kd6 Kb4 Rd4 Kb3 Kc5 Kc3 Rxc4+ Kd3 Ra3+ Kd2 Rb4 Kc2 Rxh3 Kd2 Kc4 Ke2 Rb2+ Kf1 Rh1# </t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -378,48 +340,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>